--- a/projects/CGE_Generator/data/A_HouseholdNests.xlsx
+++ b/projects/CGE_Generator/data/A_HouseholdNests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="consumption" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>

--- a/projects/CGE_Generator/data/A_HouseholdNests.xlsx
+++ b/projects/CGE_Generator/data/A_HouseholdNests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="consumption" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
